--- a/zad1.xlsx
+++ b/zad1.xlsx
@@ -203,22 +203,22 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.0</c:v>
@@ -230,184 +230,184 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>11.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>14.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>16.0</c:v>
@@ -416,79 +416,79 @@
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>18.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>17.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>18.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>17.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>20.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>21.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>22.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>23.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>24.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>25.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>24.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>25.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>24.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,11 +504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2124385744"/>
-        <c:axId val="2124393296"/>
+        <c:axId val="-2082969376"/>
+        <c:axId val="-2103523056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124385744"/>
+        <c:axId val="-2082969376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124393296"/>
+        <c:crossAx val="-2103523056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124393296"/>
+        <c:axId val="-2103523056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124385744"/>
+        <c:crossAx val="-2082969376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -900,7 +900,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.0</c:v>
@@ -918,217 +918,217 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>82.0</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>117.0</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>735.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>813.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>831.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>664.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>489.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>159.0</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>232.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>327.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>381.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>493.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>570.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>672.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>709.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>774.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>802.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>752.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>724.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>693.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>591.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>474.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>392.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>307.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>151.0</c:v>
-                </c:pt>
                 <c:pt idx="119">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>96.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>77.0</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>46.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>20.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>16.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>14.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0.0</c:v>
@@ -1140,7 +1140,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0.0</c:v>
@@ -1330,11 +1330,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2145672368"/>
-        <c:axId val="2142297360"/>
+        <c:axId val="-2098422928"/>
+        <c:axId val="-2103736256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2145672368"/>
+        <c:axId val="-2098422928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1343,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142297360"/>
+        <c:crossAx val="-2103736256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1351,7 +1351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142297360"/>
+        <c:axId val="-2103736256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1362,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145672368"/>
+        <c:crossAx val="-2098422928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,11 +2001,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1b" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1b" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2274,7 +2274,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2781,15 +2781,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2829,15 +2829,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2845,15 +2845,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -2880,12 +2880,12 @@
         <v>17</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2896,12 +2896,12 @@
         <v>17</v>
       </c>
       <c r="B77">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2912,12 +2912,12 @@
         <v>17</v>
       </c>
       <c r="B79">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2925,15 +2925,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B81">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2941,15 +2941,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2957,15 +2957,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2973,15 +2973,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B87">
-        <v>327</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2989,15 +2989,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3005,15 +3005,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B91">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3021,15 +3021,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3037,15 +3037,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>672</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3053,15 +3053,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B97">
-        <v>709</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3069,15 +3069,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>774</v>
+        <v>813</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>802</v>
+        <v>829</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3095,7 +3095,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>752</v>
+        <v>831</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B105">
-        <v>724</v>
+        <v>743</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B107">
-        <v>693</v>
+        <v>664</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3125,7 +3125,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B109">
-        <v>591</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B111">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3145,7 +3145,7 @@
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
@@ -3155,7 +3155,7 @@
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115">
-        <v>307</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
@@ -3165,7 +3165,7 @@
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
@@ -3185,7 +3185,7 @@
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.2">
@@ -3205,7 +3205,7 @@
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
@@ -3215,7 +3215,7 @@
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
@@ -3235,7 +3235,7 @@
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
@@ -3245,7 +3245,7 @@
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
@@ -3265,7 +3265,7 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
